--- a/datamining/khaiii_word_cor.xlsx
+++ b/datamining/khaiii_word_cor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Desktop\태윤\주소히\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2342A55B-90E7-4E12-8294-B944B3897A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513B15E-3FA0-43EA-8ECF-3F6BF5A457C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="2360" windowWidth="14400" windowHeight="7360" xr2:uid="{59C32FF9-3C91-4D15-A96E-E12DA5A7ACE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59C32FF9-3C91-4D15-A96E-E12DA5A7ACE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="580">
   <si>
     <t>연번</t>
   </si>
@@ -130,9 +129,6 @@
   </si>
   <si>
     <t>이외</t>
-  </si>
-  <si>
-    <t>식ㅈ[</t>
   </si>
   <si>
     <t>여섯</t>
@@ -1748,13 +1744,48 @@
   </si>
   <si>
     <t>교육청</t>
+  </si>
+  <si>
+    <t>이포</t>
+  </si>
+  <si>
+    <t>이핑</t>
+  </si>
+  <si>
+    <t>이터</t>
+  </si>
+  <si>
+    <t>이티브</t>
+  </si>
+  <si>
+    <t>이티</t>
+  </si>
+  <si>
+    <t>타이포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이티브</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1776,6 +1807,21 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1816,7 +1862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1824,6 +1870,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2138,15 +2185,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4F1E6C-C6F4-4676-83D9-85C24FE53E63}">
-  <dimension ref="A1:C395"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="E396" sqref="E396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2157,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2476,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -2484,7 +2534,7 @@
         <v>1084</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -2495,7 +2545,7 @@
         <v>1143</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -2506,10 +2556,10 @@
         <v>1172</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -2517,7 +2567,7 @@
         <v>1197</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -2528,7 +2578,7 @@
         <v>1219</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -2539,7 +2589,7 @@
         <v>1312</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -2550,7 +2600,7 @@
         <v>1344</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
@@ -2561,7 +2611,7 @@
         <v>1369</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -2572,7 +2622,7 @@
         <v>1379</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -2583,7 +2633,7 @@
         <v>1431</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
@@ -2594,7 +2644,7 @@
         <v>1440</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -2605,7 +2655,7 @@
         <v>1441</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -2616,7 +2666,7 @@
         <v>1537</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -2627,7 +2677,7 @@
         <v>1549</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -2638,7 +2688,7 @@
         <v>1567</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -2649,7 +2699,7 @@
         <v>1575</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -2660,7 +2710,7 @@
         <v>1608</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -2671,7 +2721,7 @@
         <v>1627</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -2682,7 +2732,7 @@
         <v>1675</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -2693,7 +2743,7 @@
         <v>1682</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -2704,7 +2754,7 @@
         <v>1710</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -2715,7 +2765,7 @@
         <v>1738</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -2726,7 +2776,7 @@
         <v>1746</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
@@ -2737,7 +2787,7 @@
         <v>1747</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
@@ -2748,7 +2798,7 @@
         <v>1837</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -2759,7 +2809,7 @@
         <v>1852</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
@@ -2770,7 +2820,7 @@
         <v>1869</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
@@ -2781,7 +2831,7 @@
         <v>1907</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
@@ -2792,7 +2842,7 @@
         <v>1974</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -2803,7 +2853,7 @@
         <v>1975</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
@@ -2814,7 +2864,7 @@
         <v>2063</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -2825,7 +2875,7 @@
         <v>2110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
@@ -2836,7 +2886,7 @@
         <v>2137</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
@@ -2847,7 +2897,7 @@
         <v>2141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -2858,7 +2908,7 @@
         <v>2163</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
@@ -2869,7 +2919,7 @@
         <v>2181</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
@@ -2880,7 +2930,7 @@
         <v>2232</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
@@ -2891,7 +2941,7 @@
         <v>2257</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2</v>
@@ -2902,7 +2952,7 @@
         <v>2267</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2</v>
@@ -2913,7 +2963,7 @@
         <v>2278</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
@@ -2924,7 +2974,7 @@
         <v>2342</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -2935,7 +2985,7 @@
         <v>2364</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -2946,7 +2996,7 @@
         <v>2389</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -2957,7 +3007,7 @@
         <v>2399</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -2968,7 +3018,7 @@
         <v>2462</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -2979,7 +3029,7 @@
         <v>2472</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -2990,7 +3040,7 @@
         <v>2484</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2</v>
@@ -3001,7 +3051,7 @@
         <v>2559</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2</v>
@@ -3012,7 +3062,7 @@
         <v>2670</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
@@ -3023,7 +3073,7 @@
         <v>2677</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2</v>
@@ -3034,7 +3084,7 @@
         <v>2708</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2</v>
@@ -3045,7 +3095,7 @@
         <v>2710</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2</v>
@@ -3056,7 +3106,7 @@
         <v>2718</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -3067,7 +3117,7 @@
         <v>2723</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -3078,7 +3128,7 @@
         <v>2758</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -3089,7 +3139,7 @@
         <v>2760</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
@@ -3100,7 +3150,7 @@
         <v>2761</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2</v>
@@ -3111,7 +3161,7 @@
         <v>2781</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
@@ -3122,7 +3172,7 @@
         <v>2787</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2</v>
@@ -3133,7 +3183,7 @@
         <v>2810</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -3144,7 +3194,7 @@
         <v>2818</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
@@ -3155,7 +3205,7 @@
         <v>2833</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2</v>
@@ -3166,7 +3216,7 @@
         <v>2904</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
@@ -3177,7 +3227,7 @@
         <v>2959</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -3188,7 +3238,7 @@
         <v>2985</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
@@ -3199,7 +3249,7 @@
         <v>2997</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
@@ -3210,7 +3260,7 @@
         <v>3009</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
@@ -3221,7 +3271,7 @@
         <v>3038</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
@@ -3232,7 +3282,7 @@
         <v>3045</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
@@ -3243,7 +3293,7 @@
         <v>3079</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
@@ -3254,7 +3304,7 @@
         <v>3086</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
@@ -3265,7 +3315,7 @@
         <v>3087</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
@@ -3276,7 +3326,7 @@
         <v>3089</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -3287,7 +3337,7 @@
         <v>3110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -3298,7 +3348,7 @@
         <v>3111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
@@ -3309,7 +3359,7 @@
         <v>3127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
@@ -3320,7 +3370,7 @@
         <v>3151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -3331,7 +3381,7 @@
         <v>3159</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>2</v>
@@ -3342,7 +3392,7 @@
         <v>3181</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
@@ -3353,7 +3403,7 @@
         <v>3209</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -3364,7 +3414,7 @@
         <v>3216</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
@@ -3375,7 +3425,7 @@
         <v>3262</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2</v>
@@ -3386,7 +3436,7 @@
         <v>3292</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>2</v>
@@ -3397,7 +3447,7 @@
         <v>3339</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2</v>
@@ -3408,7 +3458,7 @@
         <v>3346</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2</v>
@@ -3419,7 +3469,7 @@
         <v>3388</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -3430,7 +3480,7 @@
         <v>3430</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
@@ -3441,7 +3491,7 @@
         <v>3435</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
@@ -3452,7 +3502,7 @@
         <v>3476</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
@@ -3463,7 +3513,7 @@
         <v>3499</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
@@ -3474,7 +3524,7 @@
         <v>3502</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
@@ -3485,7 +3535,7 @@
         <v>3684</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
@@ -3496,7 +3546,7 @@
         <v>3728</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
@@ -3507,7 +3557,7 @@
         <v>3733</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -3518,7 +3568,7 @@
         <v>3750</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
@@ -3529,7 +3579,7 @@
         <v>3790</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
@@ -3540,7 +3590,7 @@
         <v>3824</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
@@ -3551,7 +3601,7 @@
         <v>3831</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
@@ -3562,7 +3612,7 @@
         <v>3884</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
@@ -3573,7 +3623,7 @@
         <v>3891</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
@@ -3584,7 +3634,7 @@
         <v>3897</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
@@ -3595,7 +3645,7 @@
         <v>3907</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>2</v>
@@ -3606,7 +3656,7 @@
         <v>3954</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>2</v>
@@ -3617,7 +3667,7 @@
         <v>3971</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>2</v>
@@ -3628,7 +3678,7 @@
         <v>3980</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>2</v>
@@ -3639,7 +3689,7 @@
         <v>4000</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>2</v>
@@ -3650,7 +3700,7 @@
         <v>4036</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>2</v>
@@ -3661,7 +3711,7 @@
         <v>4039</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2</v>
@@ -3672,7 +3722,7 @@
         <v>4041</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
@@ -3683,7 +3733,7 @@
         <v>4130</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2</v>
@@ -3694,7 +3744,7 @@
         <v>4155</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
@@ -3705,7 +3755,7 @@
         <v>4219</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
@@ -3716,7 +3766,7 @@
         <v>4237</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
@@ -3727,7 +3777,7 @@
         <v>4260</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
@@ -3738,7 +3788,7 @@
         <v>4278</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
@@ -3749,7 +3799,7 @@
         <v>4284</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>2</v>
@@ -3760,7 +3810,7 @@
         <v>4300</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
@@ -3771,7 +3821,7 @@
         <v>4336</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
@@ -3782,7 +3832,7 @@
         <v>4355</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
@@ -3793,7 +3843,7 @@
         <v>4385</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
@@ -3804,7 +3854,7 @@
         <v>4443</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
@@ -3815,7 +3865,7 @@
         <v>4485</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
@@ -3826,7 +3876,7 @@
         <v>4531</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
@@ -3837,7 +3887,7 @@
         <v>4567</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -3848,7 +3898,7 @@
         <v>4579</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
@@ -3859,10 +3909,10 @@
         <v>20</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
@@ -3870,10 +3920,10 @@
         <v>77</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
@@ -3881,10 +3931,10 @@
         <v>104</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
@@ -3892,10 +3942,10 @@
         <v>132</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
@@ -3903,10 +3953,10 @@
         <v>175</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
@@ -3914,10 +3964,10 @@
         <v>185</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
@@ -3925,10 +3975,10 @@
         <v>209</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
@@ -3936,10 +3986,10 @@
         <v>210</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
@@ -3947,10 +3997,10 @@
         <v>235</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
@@ -3958,10 +4008,10 @@
         <v>309</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
@@ -3969,10 +4019,10 @@
         <v>343</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
@@ -3980,10 +4030,10 @@
         <v>381</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
@@ -3991,10 +4041,10 @@
         <v>382</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
@@ -4002,10 +4052,10 @@
         <v>506</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
@@ -4013,10 +4063,10 @@
         <v>534</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
@@ -4024,10 +4074,10 @@
         <v>567</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
@@ -4035,10 +4085,10 @@
         <v>628</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
@@ -4046,7 +4096,7 @@
         <v>654</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1</v>
@@ -4057,10 +4107,10 @@
         <v>662</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
@@ -4068,10 +4118,10 @@
         <v>670</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
@@ -4079,10 +4129,10 @@
         <v>743</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
@@ -4090,10 +4140,10 @@
         <v>765</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -4101,10 +4151,10 @@
         <v>775</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
@@ -4112,10 +4162,10 @@
         <v>785</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
@@ -4123,10 +4173,10 @@
         <v>787</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
@@ -4134,10 +4184,10 @@
         <v>797</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
@@ -4145,10 +4195,10 @@
         <v>816</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
@@ -4156,10 +4206,10 @@
         <v>822</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
@@ -4167,10 +4217,10 @@
         <v>846</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
@@ -4178,10 +4228,10 @@
         <v>851</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -4189,10 +4239,10 @@
         <v>853</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -4200,10 +4250,10 @@
         <v>888</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
@@ -4211,10 +4261,10 @@
         <v>903</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
@@ -4222,10 +4272,10 @@
         <v>916</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
@@ -4233,10 +4283,10 @@
         <v>963</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
@@ -4244,10 +4294,10 @@
         <v>1006</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
@@ -4255,10 +4305,10 @@
         <v>1126</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
@@ -4266,10 +4316,10 @@
         <v>1142</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
@@ -4277,10 +4327,10 @@
         <v>1210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
@@ -4288,10 +4338,10 @@
         <v>1271</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
@@ -4299,10 +4349,10 @@
         <v>1277</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
@@ -4310,10 +4360,10 @@
         <v>1290</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
@@ -4321,10 +4371,10 @@
         <v>1407</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
@@ -4332,10 +4382,10 @@
         <v>1421</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -4343,10 +4393,10 @@
         <v>1423</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -4354,10 +4404,10 @@
         <v>1425</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
@@ -4365,10 +4415,10 @@
         <v>1436</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
@@ -4376,10 +4426,10 @@
         <v>1439</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
@@ -4387,10 +4437,10 @@
         <v>1448</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
@@ -4398,10 +4448,10 @@
         <v>1475</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
@@ -4409,10 +4459,10 @@
         <v>1486</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
@@ -4420,10 +4470,10 @@
         <v>1501</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
@@ -4431,10 +4481,10 @@
         <v>1502</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
@@ -4442,10 +4492,10 @@
         <v>1591</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
@@ -4453,10 +4503,10 @@
         <v>1617</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
@@ -4464,10 +4514,10 @@
         <v>1620</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
@@ -4475,10 +4525,10 @@
         <v>1629</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
@@ -4486,10 +4536,10 @@
         <v>1637</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
@@ -4497,10 +4547,10 @@
         <v>1666</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
@@ -4508,10 +4558,10 @@
         <v>1672</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
@@ -4519,10 +4569,10 @@
         <v>1696</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
@@ -4530,10 +4580,10 @@
         <v>1702</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
@@ -4541,10 +4591,10 @@
         <v>1748</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
@@ -4552,10 +4602,10 @@
         <v>1754</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
@@ -4563,10 +4613,10 @@
         <v>1767</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
@@ -4574,10 +4624,10 @@
         <v>1777</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
@@ -4585,10 +4635,10 @@
         <v>1816</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
@@ -4596,10 +4646,10 @@
         <v>1818</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
@@ -4607,10 +4657,10 @@
         <v>1856</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
@@ -4618,10 +4668,10 @@
         <v>1858</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
@@ -4629,10 +4679,10 @@
         <v>1885</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
@@ -4640,10 +4690,10 @@
         <v>1898</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
@@ -4651,10 +4701,10 @@
         <v>1908</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
@@ -4662,10 +4712,10 @@
         <v>1911</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
@@ -4673,10 +4723,10 @@
         <v>1937</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
@@ -4684,10 +4734,10 @@
         <v>1964</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
@@ -4695,10 +4745,10 @@
         <v>1978</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
@@ -4706,10 +4756,10 @@
         <v>2013</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
@@ -4717,10 +4767,10 @@
         <v>2017</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
@@ -4728,10 +4778,10 @@
         <v>2030</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
@@ -4739,10 +4789,10 @@
         <v>2046</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
@@ -4750,10 +4800,10 @@
         <v>2156</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
@@ -4761,10 +4811,10 @@
         <v>2182</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
@@ -4772,10 +4822,10 @@
         <v>2183</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
@@ -4783,10 +4833,10 @@
         <v>2185</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
@@ -4794,10 +4844,10 @@
         <v>2190</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
@@ -4805,10 +4855,10 @@
         <v>2220</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
@@ -4816,10 +4866,10 @@
         <v>2221</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
@@ -4827,10 +4877,10 @@
         <v>2235</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
@@ -4838,10 +4888,10 @@
         <v>2248</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
@@ -4849,10 +4899,10 @@
         <v>2268</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
@@ -4860,10 +4910,10 @@
         <v>2388</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
@@ -4871,10 +4921,10 @@
         <v>2420</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
@@ -4882,10 +4932,10 @@
         <v>2432</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
@@ -4893,10 +4943,10 @@
         <v>2444</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
@@ -4904,10 +4954,10 @@
         <v>2491</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
@@ -4915,10 +4965,10 @@
         <v>2509</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
@@ -4926,10 +4976,10 @@
         <v>2550</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
@@ -4937,10 +4987,10 @@
         <v>2556</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
@@ -4948,10 +4998,10 @@
         <v>2596</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
@@ -4959,10 +5009,10 @@
         <v>2642</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
@@ -4970,10 +5020,10 @@
         <v>2645</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
@@ -4981,10 +5031,10 @@
         <v>2654</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
@@ -4992,10 +5042,10 @@
         <v>2656</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
@@ -5003,10 +5053,10 @@
         <v>2662</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
@@ -5014,10 +5064,10 @@
         <v>2675</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
@@ -5025,10 +5075,10 @@
         <v>2693</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
@@ -5036,10 +5086,10 @@
         <v>2721</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
@@ -5047,10 +5097,10 @@
         <v>2726</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
@@ -5058,10 +5108,10 @@
         <v>2739</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
@@ -5069,10 +5119,10 @@
         <v>2740</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
@@ -5080,10 +5130,10 @@
         <v>2757</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
@@ -5091,10 +5141,10 @@
         <v>2762</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
@@ -5102,10 +5152,10 @@
         <v>2766</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
@@ -5113,10 +5163,10 @@
         <v>2767</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
@@ -5124,10 +5174,10 @@
         <v>2774</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
@@ -5135,10 +5185,10 @@
         <v>2776</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
@@ -5146,10 +5196,10 @@
         <v>2785</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
@@ -5157,10 +5207,10 @@
         <v>2804</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
@@ -5168,10 +5218,10 @@
         <v>2814</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
@@ -5179,10 +5229,10 @@
         <v>2822</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
@@ -5190,10 +5240,10 @@
         <v>2828</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
@@ -5201,10 +5251,10 @@
         <v>2829</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
@@ -5212,10 +5262,10 @@
         <v>2840</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
@@ -5223,10 +5273,10 @@
         <v>2846</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
@@ -5234,10 +5284,10 @@
         <v>2856</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
@@ -5245,10 +5295,10 @@
         <v>2867</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
@@ -5256,7 +5306,7 @@
         <v>2890</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>6</v>
@@ -5267,10 +5317,10 @@
         <v>2891</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
@@ -5278,10 +5328,10 @@
         <v>2893</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
@@ -5289,10 +5339,10 @@
         <v>2895</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
@@ -5300,10 +5350,10 @@
         <v>2907</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
@@ -5311,10 +5361,10 @@
         <v>2934</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
@@ -5322,10 +5372,10 @@
         <v>2950</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
@@ -5333,10 +5383,10 @@
         <v>2961</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
@@ -5344,10 +5394,10 @@
         <v>2974</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
@@ -5355,10 +5405,10 @@
         <v>2983</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
@@ -5366,10 +5416,10 @@
         <v>3002</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
@@ -5377,10 +5427,10 @@
         <v>3006</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
@@ -5388,10 +5438,10 @@
         <v>3008</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
@@ -5399,10 +5449,10 @@
         <v>3056</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
@@ -5410,10 +5460,10 @@
         <v>3073</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
@@ -5421,10 +5471,10 @@
         <v>3113</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
@@ -5432,10 +5482,10 @@
         <v>3117</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
@@ -5443,10 +5493,10 @@
         <v>3119</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
@@ -5454,10 +5504,10 @@
         <v>3163</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
@@ -5465,10 +5515,10 @@
         <v>3177</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
@@ -5476,10 +5526,10 @@
         <v>3180</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
@@ -5487,10 +5537,10 @@
         <v>3204</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
@@ -5498,10 +5548,10 @@
         <v>3222</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
@@ -5509,10 +5559,10 @@
         <v>3223</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
@@ -5520,10 +5570,10 @@
         <v>3230</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
@@ -5531,10 +5581,10 @@
         <v>3253</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
@@ -5542,10 +5592,10 @@
         <v>3274</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
@@ -5553,10 +5603,10 @@
         <v>3296</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
@@ -5564,10 +5614,10 @@
         <v>3307</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
@@ -5575,10 +5625,10 @@
         <v>3313</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
@@ -5586,10 +5636,10 @@
         <v>3317</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
@@ -5597,10 +5647,10 @@
         <v>3320</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
@@ -5608,10 +5658,10 @@
         <v>3344</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
@@ -5619,10 +5669,10 @@
         <v>3350</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
@@ -5630,10 +5680,10 @@
         <v>3359</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
@@ -5641,10 +5691,10 @@
         <v>3379</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
@@ -5652,10 +5702,10 @@
         <v>3380</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
@@ -5663,10 +5713,10 @@
         <v>3398</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
@@ -5674,10 +5724,10 @@
         <v>3414</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
@@ -5685,10 +5735,10 @@
         <v>3415</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
@@ -5696,10 +5746,10 @@
         <v>3416</v>
       </c>
       <c r="B323" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
@@ -5707,10 +5757,10 @@
         <v>3446</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
@@ -5718,10 +5768,10 @@
         <v>3447</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
@@ -5729,10 +5779,10 @@
         <v>3468</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
@@ -5740,10 +5790,10 @@
         <v>3482</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
@@ -5751,10 +5801,10 @@
         <v>3500</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
@@ -5762,10 +5812,10 @@
         <v>3524</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
@@ -5773,10 +5823,10 @@
         <v>3525</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
@@ -5784,10 +5834,10 @@
         <v>3526</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
@@ -5795,10 +5845,10 @@
         <v>3527</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
@@ -5806,10 +5856,10 @@
         <v>3530</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
@@ -5817,10 +5867,10 @@
         <v>3555</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
@@ -5828,10 +5878,10 @@
         <v>3563</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
@@ -5839,10 +5889,10 @@
         <v>3603</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
@@ -5850,10 +5900,10 @@
         <v>3615</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
@@ -5861,10 +5911,10 @@
         <v>3668</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
@@ -5872,10 +5922,10 @@
         <v>3671</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
@@ -5883,10 +5933,10 @@
         <v>3686</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
@@ -5894,10 +5944,10 @@
         <v>3710</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
@@ -5905,10 +5955,10 @@
         <v>3734</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
@@ -5916,10 +5966,10 @@
         <v>3762</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
@@ -5927,10 +5977,10 @@
         <v>3853</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
@@ -5938,10 +5988,10 @@
         <v>3854</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
@@ -5949,10 +5999,10 @@
         <v>3912</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
@@ -5960,10 +6010,10 @@
         <v>3928</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
@@ -5971,10 +6021,10 @@
         <v>3945</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
@@ -5982,10 +6032,10 @@
         <v>3951</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
@@ -5993,10 +6043,10 @@
         <v>3952</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
@@ -6004,10 +6054,10 @@
         <v>3997</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
@@ -6015,10 +6065,10 @@
         <v>4011</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
@@ -6026,10 +6076,10 @@
         <v>4013</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
@@ -6037,10 +6087,10 @@
         <v>4046</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
@@ -6048,10 +6098,10 @@
         <v>4053</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
@@ -6059,10 +6109,10 @@
         <v>4054</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
@@ -6070,10 +6120,10 @@
         <v>4055</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
@@ -6081,10 +6131,10 @@
         <v>4077</v>
       </c>
       <c r="B358" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
@@ -6092,10 +6142,10 @@
         <v>4091</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
@@ -6103,10 +6153,10 @@
         <v>4105</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
@@ -6114,10 +6164,10 @@
         <v>4108</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
@@ -6125,10 +6175,10 @@
         <v>4109</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
@@ -6136,10 +6186,10 @@
         <v>4119</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
@@ -6147,10 +6197,10 @@
         <v>4120</v>
       </c>
       <c r="B364" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
@@ -6158,10 +6208,10 @@
         <v>4131</v>
       </c>
       <c r="B365" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
@@ -6169,10 +6219,10 @@
         <v>4136</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
@@ -6180,10 +6230,10 @@
         <v>4137</v>
       </c>
       <c r="B367" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
@@ -6191,10 +6241,10 @@
         <v>4139</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
@@ -6202,10 +6252,10 @@
         <v>4143</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
@@ -6213,10 +6263,10 @@
         <v>4150</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
@@ -6224,10 +6274,10 @@
         <v>4153</v>
       </c>
       <c r="B371" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
@@ -6235,10 +6285,10 @@
         <v>4170</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
@@ -6246,10 +6296,10 @@
         <v>4178</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
@@ -6257,10 +6307,10 @@
         <v>4194</v>
       </c>
       <c r="B374" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
@@ -6268,10 +6318,10 @@
         <v>4285</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
@@ -6279,10 +6329,10 @@
         <v>4288</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
@@ -6290,10 +6340,10 @@
         <v>4306</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
@@ -6301,10 +6351,10 @@
         <v>4326</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
@@ -6312,10 +6362,10 @@
         <v>4337</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
@@ -6323,10 +6373,10 @@
         <v>4339</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
@@ -6334,10 +6384,10 @@
         <v>4361</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
@@ -6345,10 +6395,10 @@
         <v>4368</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
@@ -6356,10 +6406,10 @@
         <v>4427</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
@@ -6367,132 +6417,197 @@
         <v>4429</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" s="2">
         <v>4452</v>
       </c>
       <c r="B385" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" s="2">
         <v>4478</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" s="2">
         <v>4511</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" s="2">
         <v>4529</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" s="2">
         <v>4532</v>
       </c>
       <c r="B389" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" s="2">
         <v>4550</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" s="2">
         <v>4558</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" s="2">
         <v>4563</v>
       </c>
       <c r="B392" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" s="2">
         <v>4570</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C393" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" s="2">
         <v>4571</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" s="2">
         <v>4583</v>
       </c>
       <c r="B395" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C395" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C395" s="2" t="s">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A396" s="2">
+        <v>162</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>570</v>
       </c>
+      <c r="C396" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A397" s="2">
+        <v>331</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A398" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A399" s="2">
+        <v>2803</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D399" s="3"/>
+      <c r="E399" s="3"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A400" s="2">
+        <v>2816</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D400" s="3"/>
+      <c r="E400" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/datamining/khaiii_word_cor.xlsx
+++ b/datamining/khaiii_word_cor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Desktop\태윤\주소히\datamining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513B15E-3FA0-43EA-8ECF-3F6BF5A457C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCC9EF7-07EE-4C67-8C3D-184AC3C25459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59C32FF9-3C91-4D15-A96E-E12DA5A7ACE2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="728">
   <si>
     <t>연번</t>
   </si>
@@ -1779,6 +1779,450 @@
   <si>
     <t>삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트롤</t>
+  </si>
+  <si>
+    <t>웨어</t>
+  </si>
+  <si>
+    <t>립트</t>
+  </si>
+  <si>
+    <t>리눅</t>
+  </si>
+  <si>
+    <t>․자발</t>
+  </si>
+  <si>
+    <t>제공․비치</t>
+  </si>
+  <si>
+    <t>롤플레</t>
+  </si>
+  <si>
+    <t>시․</t>
+  </si>
+  <si>
+    <t>․무</t>
+  </si>
+  <si>
+    <t>․명</t>
+  </si>
+  <si>
+    <t>선․</t>
+  </si>
+  <si>
+    <t>리니</t>
+  </si>
+  <si>
+    <t>다이얼</t>
+  </si>
+  <si>
+    <t>•급</t>
+  </si>
+  <si>
+    <t>전기회</t>
+  </si>
+  <si>
+    <t>전자교</t>
+  </si>
+  <si>
+    <t>등재</t>
+  </si>
+  <si>
+    <t>워터</t>
+  </si>
+  <si>
+    <t>비전공</t>
+  </si>
+  <si>
+    <t>이진체</t>
+  </si>
+  <si>
+    <t>앱인</t>
+  </si>
+  <si>
+    <t>전기문</t>
+  </si>
+  <si>
+    <t>양자역</t>
+  </si>
+  <si>
+    <t>디지털역량내용교수</t>
+  </si>
+  <si>
+    <t>블록체</t>
+  </si>
+  <si>
+    <t>데이타베이스시스템</t>
+  </si>
+  <si>
+    <t>시스템</t>
+  </si>
+  <si>
+    <t>메카니즘</t>
+  </si>
+  <si>
+    <t>메커니즘</t>
+  </si>
+  <si>
+    <t>클래</t>
+  </si>
+  <si>
+    <t>클래스</t>
+  </si>
+  <si>
+    <t>클라이</t>
+  </si>
+  <si>
+    <t>클라이언트</t>
+  </si>
+  <si>
+    <t>호남문화</t>
+  </si>
+  <si>
+    <t>리눅스기반</t>
+  </si>
+  <si>
+    <t>리눅스</t>
+  </si>
+  <si>
+    <t>풍토아래</t>
+  </si>
+  <si>
+    <t>풍토</t>
+  </si>
+  <si>
+    <t>클라이언트간</t>
+  </si>
+  <si>
+    <t>모듈의</t>
+  </si>
+  <si>
+    <t>․관찰</t>
+  </si>
+  <si>
+    <t>관찰</t>
+  </si>
+  <si>
+    <t>.어린이</t>
+  </si>
+  <si>
+    <t>어린이</t>
+  </si>
+  <si>
+    <t>•남용</t>
+  </si>
+  <si>
+    <t>남용</t>
+  </si>
+  <si>
+    <t>，통계</t>
+  </si>
+  <si>
+    <t>통계</t>
+  </si>
+  <si>
+    <t>，협동</t>
+  </si>
+  <si>
+    <t>협동</t>
+  </si>
+  <si>
+    <t>경남지</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>，학습</t>
+  </si>
+  <si>
+    <t>•수혜</t>
+  </si>
+  <si>
+    <t>수혜</t>
+  </si>
+  <si>
+    <t>，학부모</t>
+  </si>
+  <si>
+    <t>학부모</t>
+  </si>
+  <si>
+    <t>정보과</t>
+  </si>
+  <si>
+    <t>정보교과</t>
+  </si>
+  <si>
+    <t>•학습</t>
+  </si>
+  <si>
+    <t>•공간</t>
+  </si>
+  <si>
+    <t>공간</t>
+  </si>
+  <si>
+    <t>，특별</t>
+  </si>
+  <si>
+    <t>강원도지역</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>？학습</t>
+  </si>
+  <si>
+    <t>뮤직프로덕</t>
+  </si>
+  <si>
+    <t>뮤직프로덕트</t>
+  </si>
+  <si>
+    <t>，인터넷</t>
+  </si>
+  <si>
+    <t>시․도</t>
+  </si>
+  <si>
+    <t>시도</t>
+  </si>
+  <si>
+    <t>개선점</t>
+  </si>
+  <si>
+    <t>개선</t>
+  </si>
+  <si>
+    <t>오․남용</t>
+  </si>
+  <si>
+    <t>오남용</t>
+  </si>
+  <si>
+    <t>검․인</t>
+  </si>
+  <si>
+    <t>검인정</t>
+  </si>
+  <si>
+    <t>수․연산</t>
+  </si>
+  <si>
+    <t>수연산</t>
+  </si>
+  <si>
+    <t>타교</t>
+  </si>
+  <si>
+    <t>타교과</t>
+  </si>
+  <si>
+    <t>학습방</t>
+  </si>
+  <si>
+    <t>개선안</t>
+  </si>
+  <si>
+    <t>블로</t>
+  </si>
+  <si>
+    <t>블로그</t>
+  </si>
+  <si>
+    <t>다이얼로</t>
+  </si>
+  <si>
+    <t>다이얼로그</t>
+  </si>
+  <si>
+    <t>，수업</t>
+  </si>
+  <si>
+    <t>수업</t>
+  </si>
+  <si>
+    <t>초둥</t>
+  </si>
+  <si>
+    <t>난이</t>
+  </si>
+  <si>
+    <t>난이도</t>
+  </si>
+  <si>
+    <t>，학생</t>
+  </si>
+  <si>
+    <t>결정트</t>
+  </si>
+  <si>
+    <t>결정트리</t>
+  </si>
+  <si>
+    <t>고력</t>
+  </si>
+  <si>
+    <t>사고력</t>
+  </si>
+  <si>
+    <t>경남도내</t>
+  </si>
+  <si>
+    <t>정보격차해소방안</t>
+  </si>
+  <si>
+    <t>정보격차</t>
+  </si>
+  <si>
+    <t>이러닝체계</t>
+  </si>
+  <si>
+    <t>이러닝</t>
+  </si>
+  <si>
+    <t>나이스연구</t>
+  </si>
+  <si>
+    <t>연구</t>
+  </si>
+  <si>
+    <t>프로토타</t>
+  </si>
+  <si>
+    <t>정보교</t>
+  </si>
+  <si>
+    <t>곤충형로봇</t>
+  </si>
+  <si>
+    <t>로봇</t>
+  </si>
+  <si>
+    <t>라인트레이</t>
+  </si>
+  <si>
+    <t>라인트레이서</t>
+  </si>
+  <si>
+    <t>검사순</t>
+  </si>
+  <si>
+    <t>검사</t>
+  </si>
+  <si>
+    <t>라인트레</t>
+  </si>
+  <si>
+    <t>정규교</t>
+  </si>
+  <si>
+    <t>정규교과</t>
+  </si>
+  <si>
+    <t>정규교과목</t>
+  </si>
+  <si>
+    <t>언플러그드기반</t>
+  </si>
+  <si>
+    <t>과학교</t>
+  </si>
+  <si>
+    <t>과학교과</t>
+  </si>
+  <si>
+    <t>남녀별</t>
+  </si>
+  <si>
+    <t>남녀</t>
+  </si>
+  <si>
+    <t>마트</t>
+  </si>
+  <si>
+    <t>스마트</t>
+  </si>
+  <si>
+    <t>마트러닝</t>
+  </si>
+  <si>
+    <t>인터랙티브</t>
+  </si>
+  <si>
+    <t>마트폰</t>
+  </si>
+  <si>
+    <t>클라우</t>
+  </si>
+  <si>
+    <t>클라우드</t>
+  </si>
+  <si>
+    <t>마트교육</t>
+  </si>
+  <si>
+    <t>스마트교육</t>
+  </si>
+  <si>
+    <t>마트시대</t>
+  </si>
+  <si>
+    <t>스마트시대</t>
+  </si>
+  <si>
+    <t>마트기기</t>
+  </si>
+  <si>
+    <t>스마트기기</t>
+  </si>
+  <si>
+    <t>마트패드</t>
+  </si>
+  <si>
+    <t>스마트패드</t>
+  </si>
+  <si>
+    <t>영재학</t>
+  </si>
+  <si>
+    <t>영재</t>
+  </si>
+  <si>
+    <t>마트교실</t>
+  </si>
+  <si>
+    <t>스마트교실</t>
+  </si>
+  <si>
+    <t>벤터</t>
+  </si>
+  <si>
+    <t>앱인벤</t>
+  </si>
+  <si>
+    <t>위두</t>
+  </si>
+  <si>
+    <t>위두랑</t>
+  </si>
+  <si>
+    <t>베이지</t>
+  </si>
+  <si>
+    <t>베이식</t>
+  </si>
+  <si>
+    <t>미교육협회</t>
+  </si>
+  <si>
+    <t>미국교육협회</t>
   </si>
 </sst>
 </file>
@@ -2185,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4F1E6C-C6F4-4676-83D9-85C24FE53E63}">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="E396" sqref="E396"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="J501" sqref="J501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6609,6 +7053,1128 @@
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
     </row>
+    <row r="401" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A401" s="2">
+        <v>793</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A402" s="2">
+        <v>882</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A403" s="2">
+        <v>924</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A404" s="2">
+        <v>974</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A405" s="2">
+        <v>978</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A406" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A407" s="2">
+        <v>1251</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A408" s="2">
+        <v>1422</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A409" s="2">
+        <v>1785</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A410" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A411" s="2">
+        <v>2103</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A412" s="2">
+        <v>2109</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A413" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A414" s="2">
+        <v>2229</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A415" s="2">
+        <v>2301</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A416" s="2">
+        <v>3062</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A417" s="2">
+        <v>3220</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A418" s="2">
+        <v>3705</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A419" s="2">
+        <v>3987</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A420" s="2">
+        <v>4271</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A421" s="2">
+        <v>4296</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A422" s="2">
+        <v>4356</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A423" s="2">
+        <v>4482</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A424" s="2">
+        <v>4513</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A425" s="2">
+        <v>4742</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A426" s="2">
+        <v>4884</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A427" s="2">
+        <v>52</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A428" s="2">
+        <v>328</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A429" s="2">
+        <v>335</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A430" s="2">
+        <v>504</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A431" s="2">
+        <v>628</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A432" s="2">
+        <v>640</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A433" s="2">
+        <v>975</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A434" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A435" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A436" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A437" s="2">
+        <v>1155</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A438" s="2">
+        <v>1297</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A439" s="2">
+        <v>1340</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A440" s="2">
+        <v>1364</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A441" s="2">
+        <v>1365</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A442" s="2">
+        <v>1367</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A443" s="2">
+        <v>1375</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A444" s="2">
+        <v>1376</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A445" s="2">
+        <v>1383</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A446" s="2">
+        <v>1516</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A447" s="2">
+        <v>1570</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A448" s="2">
+        <v>1576</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A449" s="2">
+        <v>1592</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A450" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A451" s="2">
+        <v>1621</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A452" s="2">
+        <v>1623</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A453" s="2">
+        <v>1646</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A454" s="2">
+        <v>1727</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A455" s="2">
+        <v>1731</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A456" s="2">
+        <v>1741</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A457" s="2">
+        <v>1782</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A458" s="2">
+        <v>1818</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A459" s="2">
+        <v>1836</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A460" s="2">
+        <v>1926</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A461" s="2">
+        <v>1942</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A462" s="2">
+        <v>2127</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A463" s="2">
+        <v>2230</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A464" s="2">
+        <v>2261</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A465" s="2">
+        <v>2272</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A466" s="2">
+        <v>2337</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A467" s="2">
+        <v>2481</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A468" s="2">
+        <v>2676</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A469" s="2">
+        <v>2710</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A470" s="2">
+        <v>2747</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A471" s="2">
+        <v>2887</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A472" s="2">
+        <v>3075</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A473" s="2">
+        <v>3115</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A474" s="2">
+        <v>3141</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A475" s="2">
+        <v>3152</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A476" s="2">
+        <v>3224</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A477" s="2">
+        <v>3230</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A478" s="2">
+        <v>3310</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A479" s="2">
+        <v>3375</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A480" s="2">
+        <v>3401</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A481" s="2">
+        <v>3405</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A482" s="2">
+        <v>3406</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A483" s="2">
+        <v>3480</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A484" s="2">
+        <v>3546</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A485" s="2">
+        <v>3569</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A486" s="2">
+        <v>3654</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A487" s="2">
+        <v>3659</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A488" s="2">
+        <v>3672</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A489" s="2">
+        <v>3689</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A490" s="2">
+        <v>3765</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A491" s="2">
+        <v>3852</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A492" s="2">
+        <v>3903</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A493" s="2">
+        <v>3937</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A494" s="2">
+        <v>4007</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A495" s="2">
+        <v>4030</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A496" s="2">
+        <v>4118</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A497" s="2">
+        <v>4167</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A498" s="2">
+        <v>4355</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A499" s="2">
+        <v>4357</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A500" s="2">
+        <v>4883</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A501" s="2">
+        <v>4926</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A502" s="2">
+        <v>5098</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
